--- a/classfiers/chatty/elm/chatty_elm_rbf_linf_results.xlsx
+++ b/classfiers/chatty/elm/chatty_elm_rbf_linf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9742489270386266</v>
+        <v>0.9812206572769953</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9957081545064378</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.9716981132075472</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9862401953529674</v>
+        <v>0.9764460979714766</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
